--- a/npbenchmark-main/SDK.VRPTW2d/variables.xlsx
+++ b/npbenchmark-main/SDK.VRPTW2d/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.VRPTW2d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ED936B-361A-4A47-B49D-587576FA7D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E00132-539F-4FC3-B7E1-52C002AB9164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vars" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1435,6 +1435,207 @@
   <si>
     <t>std::vector&lt;std::vector&lt;int&gt;&gt; travel_times;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>construct_solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>select_next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">k, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Route </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>route)</t>
+    </r>
+  </si>
+  <si>
+    <t>public void update_pheromone()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACS_Strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>print_result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>check_answer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1833,7 +2034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1997,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C48D0F-2780-4E37-9F6B-E8DCE837CA9A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2008,18 +2209,77 @@
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/npbenchmark-main/SDK.VRPTW2d/variables.xlsx
+++ b/npbenchmark-main/SDK.VRPTW2d/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.VRPTW2d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E00132-539F-4FC3-B7E1-52C002AB9164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F106D1B-D33B-45C8-A29A-3C85AE0F9EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1447,29 +1447,6 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>init</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF080808"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public void </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00627A"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
       <t>reset</t>
     </r>
     <r>
@@ -1635,6 +1612,979 @@
         <family val="2"/>
       </rPr>
       <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>best_solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>agent_position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>pheromone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>heuristic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>init_pheromone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息素初始值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>w1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算概率的参数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>w2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算概率的参数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>infoPhe</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的参数，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>beta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>infoPhe</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的参数，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>theta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>infoPhe</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的参数，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AntColony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>VRPTW2d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&amp; input, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF371F80"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt;&amp; input_travel_times, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>input_seed);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>init_other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>init_other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>select_next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">k, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp; route);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>construct_solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>update_pheromone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACS_Strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
     </r>
   </si>
 </sst>
@@ -1741,7 +2691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1750,6 +2700,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2119,50 +3072,80 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2198,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C48D0F-2780-4E37-9F6B-E8DCE837CA9A}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2221,60 +3204,66 @@
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/SDK.VRPTW2d/variables.xlsx
+++ b/npbenchmark-main/SDK.VRPTW2d/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.VRPTW2d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F106D1B-D33B-45C8-A29A-3C85AE0F9EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA4B15B-CDFA-4421-971E-782B1372C1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2576,6 +2576,29 @@
         <family val="2"/>
       </rPr>
       <t>ACS_Strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>print_result</t>
     </r>
     <r>
       <rPr>
@@ -3184,7 +3207,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3260,9 +3283,15 @@
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
